--- a/GoodwillRequest.xlsx
+++ b/GoodwillRequest.xlsx
@@ -1425,7 +1425,7 @@
   <sheetPr/>
   <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
